--- a/untranslated/downloads/data-excel/16.1.3.xlsx
+++ b/untranslated/downloads/data-excel/16.1.3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Глобальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Глобальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -53,9 +53,6 @@
     <t>Высшее</t>
   </si>
   <si>
-    <t>Возраст (в годах)</t>
-  </si>
-  <si>
     <t>15-19</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>По данным кластерного обследования по многим показателям, 2018г.</t>
   </si>
   <si>
-    <t>Образование</t>
-  </si>
-  <si>
     <t>(*)</t>
   </si>
   <si>
@@ -206,18 +200,6 @@
     <t>Osh city</t>
   </si>
   <si>
-    <t>Жаш курагы (жылдарда)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age (in years) </t>
-  </si>
-  <si>
-    <t>Билими</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
     <t>Мектепке чейинки же жок / Башталгыч</t>
   </si>
   <si>
@@ -270,6 +252,24 @@
   </si>
   <si>
     <t>Kyrgyz Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By age (in years) </t>
+  </si>
+  <si>
+    <t>By education</t>
+  </si>
+  <si>
+    <t>По возрасту (в годах)</t>
+  </si>
+  <si>
+    <t>Жаш курагы боюнча (жылдарда)</t>
+  </si>
+  <si>
+    <t>Билими боюнча</t>
+  </si>
+  <si>
+    <t>По образованию</t>
   </si>
 </sst>
 </file>
@@ -772,9 +772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -783,25 +781,25 @@
   <sheetData>
     <row r="1" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="9">
         <v>2018</v>
@@ -809,13 +807,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D4" s="21">
         <v>2.2000000000000002</v>
@@ -823,25 +821,25 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="D6" s="5">
         <v>2.5</v>
@@ -849,13 +847,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="D7" s="5">
         <v>2.1</v>
@@ -863,25 +861,25 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="D9" s="6">
         <v>0</v>
@@ -889,13 +887,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="D10" s="6">
         <v>0.9</v>
@@ -903,13 +901,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="D11" s="6">
         <v>0.7</v>
@@ -917,13 +915,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="D12" s="6">
         <v>1.7</v>
@@ -931,13 +929,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="D13" s="6">
         <v>1.1000000000000001</v>
@@ -945,13 +943,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="D14" s="6">
         <v>1.2</v>
@@ -959,13 +957,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D15" s="6">
         <v>6.3</v>
@@ -973,13 +971,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16" s="6">
         <v>3.1</v>
@@ -987,13 +985,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" s="6">
         <v>1.7</v>
@@ -1001,25 +999,25 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="6">
         <v>1.7</v>
@@ -1027,13 +1025,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" s="6">
         <v>1.1000000000000001</v>
@@ -1041,13 +1039,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" s="6">
         <v>3</v>
@@ -1055,13 +1053,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="6">
         <v>2.2999999999999998</v>
@@ -1069,13 +1067,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" s="6">
         <v>2.6</v>
@@ -1083,13 +1081,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" s="6">
         <v>2.2999999999999998</v>
@@ -1097,13 +1095,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" s="6">
         <v>2.4</v>
@@ -1111,13 +1109,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" s="6">
         <v>2.2999999999999998</v>
@@ -1125,13 +1123,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" s="6">
         <v>1.9</v>
@@ -1139,39 +1137,39 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D30" s="6">
         <v>2.2999999999999998</v>
@@ -1179,13 +1177,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D31" s="6">
         <v>1.2</v>
@@ -1193,13 +1191,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D32" s="6">
         <v>2.7</v>
@@ -1207,13 +1205,13 @@
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D33" s="8">
         <v>3.3</v>
@@ -1221,13 +1219,13 @@
     </row>
     <row r="34" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/untranslated/downloads/data-excel/16.1.3.xlsx
+++ b/untranslated/downloads/data-excel/16.1.3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="86">
   <si>
     <t>Наименование показателей</t>
   </si>
@@ -80,9 +80,6 @@
     <t>45-49</t>
   </si>
   <si>
-    <t>По данным кластерного обследования по многим показателям, 2018г.</t>
-  </si>
-  <si>
     <t>(*)</t>
   </si>
   <si>
@@ -236,12 +233,6 @@
     <t>higher</t>
   </si>
   <si>
-    <t xml:space="preserve"> Көп көрсөткүчтүү кластердик изилдөөнүн маалыматтары боюнча, 2018-ж.</t>
-  </si>
-  <si>
-    <t>According to the cluster survey for many indicators, 2018.</t>
-  </si>
-  <si>
     <t>16.1.3 Акыркы 12 айда дуушарланган күчтөн: талап тоноо же кол салуудан улам жабыркаган 15-49 жаштагы аялдардын үлүшү</t>
   </si>
   <si>
@@ -270,6 +261,27 @@
   </si>
   <si>
     <t>По образованию</t>
+  </si>
+  <si>
+    <t>(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Көп көрсөткүчтүү кластердик изилдөөнүн маалыматтары боюнча, 2018-ж., 2023-ж.</t>
+  </si>
+  <si>
+    <t>По данным кластерного обследования по многим показателям, 2018г., 2023г.</t>
+  </si>
+  <si>
+    <t>(пайыз менен)</t>
+  </si>
+  <si>
+    <t>(в процентах)</t>
+  </si>
+  <si>
+    <t>(in percents)</t>
+  </si>
+  <si>
+    <t>According to Multiple Indicator Cluster Survey, 2018, 2023.</t>
   </si>
 </sst>
 </file>
@@ -279,7 +291,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,6 +377,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -422,7 +442,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -486,6 +506,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -770,7 +796,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -779,453 +805,549 @@
     <col min="1" max="3" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="9">
+        <v>2018</v>
+      </c>
+      <c r="E4" s="9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="D5" s="21">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E5" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="E18" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="9">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="6">
+        <v>3</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E27" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="E33" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="21">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="5">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="5">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="6">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="6">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="6">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="6">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="6">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="6">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="6">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="6">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="6">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="6">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B35" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="6">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="6">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="6">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="8">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>71</v>
+      <c r="C35" s="20" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
